--- a/biology/Botanique/Euphorbia_characias/Euphorbia_characias.xlsx
+++ b/biology/Botanique/Euphorbia_characias/Euphorbia_characias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbe characias, Euphorbe des garrigues
 L'Euphorbe characias ou Euphorbe des garrigues (Euphorbia characias L.) est une espèce de plantes de la famille des Euphorbiacées, originaire du pourtour méditerranéen.
@@ -516,12 +528,14 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nom scientifique valide : Euphorbia characias  L.[3],
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Euphorbe characias[4],[5],[6], Euphorbe des garrigues[4],[5].
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Euphorbe des vallons[4],[5],[7], grande euphorbe[5], grande euphorbe des garrigues[5]. En provençal : lachoscla[5].
-La sous-espèce Euphorbia characias subsp. veneta, qui n'est plus reconnue comme telle, est encore parfois nommée Euphorbe de Vénétie[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom scientifique valide : Euphorbia characias  L.,
+Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Euphorbe characias Euphorbe des garrigues,.
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Euphorbe des vallons grande euphorbe, grande euphorbe des garrigues. En provençal : lachoscla.
+La sous-espèce Euphorbia characias subsp. veneta, qui n'est plus reconnue comme telle, est encore parfois nommée Euphorbe de Vénétie.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante au port buissonnant érigé ou étalé selon les variétés, atteignant au maximum 1,2 m de hauteur.
 Les feuilles sont ovales, d'un vert glauque.
@@ -591,7 +607,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante des garrigues méditerranéennes occidentales, que l'on rencontre dans les lieux rocailleux.
 </t>
@@ -622,14 +640,51 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778)[8].
-Liste des sous-espèces et variétés
-Selon BioLib                    (21 mars 2019)[2], World Checklist of Selected Plant Families (WCSP)  (21 mars 2019)[3], Selon NCBI  (21 mars 2019)[9],  :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euphorbia_characias</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphorbia_characias</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (21 mars 2019), World Checklist of Selected Plant Families (WCSP)  (21 mars 2019), Selon NCBI  (21 mars 2019),  :
 sous-espèce Euphorbia characias subsp. characias L.
 sous-espèce Euphorbia characias subsp. wulfenii (Hoppe ex Koch) A.R. Sm. - c'est l'une des formes les plus hautes (1,20 m) et ses inflorescences jaune-vert sont spectaculaires.
-Selon Tropicos                                           (21 mars 2019)[10] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Euphorbia characias subsp. characias
 sous-espèce Euphorbia characias subsp. veneta (Willd.) Litard.
 sous-espèce Euphorbia characias subsp. wulfenii (Hoppe ex W. Koch) Radcl.-Sm.
@@ -640,39 +695,76 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Euphorbia_characias</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Euphorbia_characias</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette euphorbe apprécie un emplacement ensoleillé et un sol drainant, même de qualité moyenne.
 Une fois installée, elle est peu gourmande en eau.
 Selon les variétés, cette euphorbe supporte des températures hivernales allant de -5 à -15 °C.
 Chaque tige est bisannuelle. La première année, elle apparaît et donne des feuilles. La seconde année, elle produit une inflorescence terminale. Pour garder une plante bien compacte, il faut tailler les tiges qui ont fleuri afin de stimuler de nouvelles pousses à la base de la plante.
 Cette euphorbe se multiplie facilement par semis ou par bouturage des jeunes pousses au printemps.
-Cultivars
-La taille et les couleurs des euphorbes des garrigues varient selon les cultivars, par exemple :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euphorbia_characias</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphorbia_characias</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille et les couleurs des euphorbes des garrigues varient selon les cultivars, par exemple :
 Euphorbia characias ‘Black Pearl’ : Inflorescence vert-jaune maculée de noir.
 Euphorbia characias ‘Bleu Wonder’ : feuillage bleuté.
 Euphorbia characias ‘Forescate’ : feuillage bleuté, sombre. Supporte bien la sécheresse.
